--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/技术面2022-10-25.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/技术面2022-10-25.xlsx
@@ -1317,10 +1317,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1349,20 +1349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1371,11 +1357,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1387,21 +1393,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1409,18 +1400,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1434,23 +1418,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1479,8 +1447,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1490,6 +1467,29 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1520,7 +1520,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1532,7 +1544,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,37 +1616,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1586,7 +1646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,25 +1664,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,73 +1694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1745,6 +1745,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1759,21 +1774,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1820,161 +1820,161 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2047,15 +2047,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2394,15 +2386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:G170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelCol="6"/>
@@ -2483,7 +2475,7 @@
         <v>6.583</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2506,7 +2498,7 @@
         <v>13.502</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2529,7 +2521,7 @@
         <v>5.524</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2552,7 +2544,7 @@
         <v>18.281</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:7">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2575,7 +2567,7 @@
         <v>10.102</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:7">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2598,7 +2590,7 @@
         <v>4.462</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:7">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2713,7 +2705,7 @@
         <v>7.071</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:7">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2805,7 +2797,7 @@
         <v>110.975</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:7">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -2828,7 +2820,7 @@
         <v>31.816</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:7">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -2874,7 +2866,7 @@
         <v>3.597</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:7">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
@@ -2920,7 +2912,7 @@
         <v>77.587</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:7">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -2989,7 +2981,7 @@
         <v>4.951</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:7">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>71</v>
       </c>
@@ -3012,7 +3004,7 @@
         <v>3.763</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:7">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>74</v>
       </c>
@@ -3035,7 +3027,7 @@
         <v>19.935</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:7">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>76</v>
       </c>
@@ -3104,7 +3096,7 @@
         <v>13.199</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:7">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
@@ -3127,7 +3119,7 @@
         <v>7.717</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:7">
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
@@ -3150,7 +3142,7 @@
         <v>9.972</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:7">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>89</v>
       </c>
@@ -3173,7 +3165,7 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:7">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>91</v>
       </c>
@@ -3196,7 +3188,7 @@
         <v>20.07</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:7">
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>93</v>
       </c>
@@ -3265,7 +3257,7 @@
         <v>9.865</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:7">
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>101</v>
       </c>
@@ -3288,7 +3280,7 @@
         <v>3.461</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:7">
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>104</v>
       </c>
@@ -3334,7 +3326,7 @@
         <v>14.752</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:7">
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
         <v>109</v>
       </c>
@@ -3380,7 +3372,7 @@
         <v>18.883</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:7">
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
         <v>115</v>
       </c>
@@ -3426,7 +3418,7 @@
         <v>12.996</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:7">
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
         <v>121</v>
       </c>
@@ -3449,7 +3441,7 @@
         <v>29.116</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:7">
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
         <v>123</v>
       </c>
@@ -3472,7 +3464,7 @@
         <v>8.741</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:7">
+    <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
         <v>126</v>
       </c>
@@ -3495,7 +3487,7 @@
         <v>4.585</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:7">
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>128</v>
       </c>
@@ -3518,7 +3510,7 @@
         <v>16.691</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:7">
+    <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
         <v>130</v>
       </c>
@@ -3564,7 +3556,7 @@
         <v>12.198</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:7">
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
         <v>135</v>
       </c>
@@ -3633,7 +3625,7 @@
         <v>4.593</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:7">
+    <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
         <v>144</v>
       </c>
@@ -3656,7 +3648,7 @@
         <v>5.329</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:7">
+    <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
         <v>146</v>
       </c>
@@ -3679,7 +3671,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:7">
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
         <v>149</v>
       </c>
@@ -3702,7 +3694,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:7">
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
         <v>151</v>
       </c>
@@ -3748,7 +3740,7 @@
         <v>11.361</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:7">
+    <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
         <v>156</v>
       </c>
@@ -3794,7 +3786,7 @@
         <v>14.432</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:7">
+    <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
         <v>161</v>
       </c>
@@ -3817,7 +3809,7 @@
         <v>7.717</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:7">
+    <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -3840,7 +3832,7 @@
         <v>7.169</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:7">
+    <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
         <v>166</v>
       </c>
@@ -3863,7 +3855,7 @@
         <v>13.671</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:7">
+    <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
         <v>169</v>
       </c>
@@ -3886,7 +3878,7 @@
         <v>18.291</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:7">
+    <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
         <v>171</v>
       </c>
@@ -3909,7 +3901,7 @@
         <v>14.811</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:7">
+    <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
         <v>174</v>
       </c>
@@ -3932,7 +3924,7 @@
         <v>14.735</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:7">
+    <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
         <v>176</v>
       </c>
@@ -3955,7 +3947,7 @@
         <v>9.116</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:7">
+    <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
         <v>179</v>
       </c>
@@ -3978,7 +3970,7 @@
         <v>25.759</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:7">
+    <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
         <v>181</v>
       </c>
@@ -4001,7 +3993,7 @@
         <v>4.098</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:7">
+    <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
         <v>184</v>
       </c>
@@ -4024,7 +4016,7 @@
         <v>6.257</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:7">
+    <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
         <v>186</v>
       </c>
@@ -4047,7 +4039,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:7">
+    <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
         <v>189</v>
       </c>
@@ -4116,7 +4108,7 @@
         <v>13.156</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:7">
+    <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
         <v>196</v>
       </c>
@@ -4162,7 +4154,7 @@
         <v>3.433</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:7">
+    <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
         <v>202</v>
       </c>
@@ -4185,7 +4177,7 @@
         <v>5.688</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:7">
+    <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
         <v>204</v>
       </c>
@@ -4208,7 +4200,7 @@
         <v>8.539</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:7">
+    <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
         <v>206</v>
       </c>
@@ -4231,7 +4223,7 @@
         <v>8.202</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:7">
+    <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
         <v>209</v>
       </c>
@@ -4254,7 +4246,7 @@
         <v>2.684</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:7">
+    <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
         <v>212</v>
       </c>
@@ -4277,7 +4269,7 @@
         <v>42.308</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:7">
+    <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
         <v>214</v>
       </c>
@@ -4323,7 +4315,7 @@
         <v>3.504</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:7">
+    <row r="84" spans="1:7">
       <c r="A84" s="2" t="s">
         <v>219</v>
       </c>
@@ -4346,7 +4338,7 @@
         <v>14.425</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:7">
+    <row r="85" spans="1:7">
       <c r="A85" s="2" t="s">
         <v>221</v>
       </c>
@@ -4369,7 +4361,7 @@
         <v>3.559</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:7">
+    <row r="86" spans="1:7">
       <c r="A86" s="2" t="s">
         <v>223</v>
       </c>
@@ -4392,7 +4384,7 @@
         <v>14.376</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:7">
+    <row r="87" spans="1:7">
       <c r="A87" s="2" t="s">
         <v>226</v>
       </c>
@@ -4415,7 +4407,7 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:7">
+    <row r="88" spans="1:7">
       <c r="A88" s="2" t="s">
         <v>229</v>
       </c>
@@ -4438,7 +4430,7 @@
         <v>5.207</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:7">
+    <row r="89" spans="1:7">
       <c r="A89" s="2" t="s">
         <v>232</v>
       </c>
@@ -4461,7 +4453,7 @@
         <v>118.171</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:7">
+    <row r="90" spans="1:7">
       <c r="A90" s="2" t="s">
         <v>235</v>
       </c>
@@ -4507,7 +4499,7 @@
         <v>3.884</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:7">
+    <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
         <v>240</v>
       </c>
@@ -4530,7 +4522,7 @@
         <v>6.966</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:7">
+    <row r="93" spans="1:7">
       <c r="A93" s="2" t="s">
         <v>243</v>
       </c>
@@ -4553,7 +4545,7 @@
         <v>15.219</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:7">
+    <row r="94" spans="1:7">
       <c r="A94" s="2" t="s">
         <v>246</v>
       </c>
@@ -4576,7 +4568,7 @@
         <v>8.258</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:7">
+    <row r="95" spans="1:7">
       <c r="A95" s="2" t="s">
         <v>249</v>
       </c>
@@ -4622,7 +4614,7 @@
         <v>38.618</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:7">
+    <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
         <v>253</v>
       </c>
@@ -4645,7 +4637,7 @@
         <v>16.379</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:7">
+    <row r="98" spans="1:7">
       <c r="A98" s="2" t="s">
         <v>255</v>
       </c>
@@ -4668,7 +4660,7 @@
         <v>6.283</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:7">
+    <row r="99" spans="1:7">
       <c r="A99" s="2" t="s">
         <v>258</v>
       </c>
@@ -4691,7 +4683,7 @@
         <v>14.861</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:7">
+    <row r="100" spans="1:7">
       <c r="A100" s="2" t="s">
         <v>260</v>
       </c>
@@ -4714,7 +4706,7 @@
         <v>2.817</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:7">
+    <row r="101" spans="1:7">
       <c r="A101" s="2" t="s">
         <v>263</v>
       </c>
@@ -4737,7 +4729,7 @@
         <v>15.996</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:7">
+    <row r="102" spans="1:7">
       <c r="A102" s="2" t="s">
         <v>266</v>
       </c>
@@ -4760,7 +4752,7 @@
         <v>6.283</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:7">
+    <row r="103" spans="1:7">
       <c r="A103" s="2" t="s">
         <v>268</v>
       </c>
@@ -4783,7 +4775,7 @@
         <v>58.636</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:7">
+    <row r="104" spans="1:7">
       <c r="A104" s="2" t="s">
         <v>271</v>
       </c>
@@ -4806,7 +4798,7 @@
         <v>26.198</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:7">
+    <row r="105" spans="1:7">
       <c r="A105" s="2" t="s">
         <v>273</v>
       </c>
@@ -4829,7 +4821,7 @@
         <v>19.692</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:7">
+    <row r="106" spans="1:7">
       <c r="A106" s="2" t="s">
         <v>275</v>
       </c>
@@ -4852,7 +4844,7 @@
         <v>6.904</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:7">
+    <row r="107" spans="1:7">
       <c r="A107" s="2" t="s">
         <v>277</v>
       </c>
@@ -4898,7 +4890,7 @@
         <v>27.468</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:7">
+    <row r="109" spans="1:7">
       <c r="A109" s="2" t="s">
         <v>282</v>
       </c>
@@ -4921,7 +4913,7 @@
         <v>13.564</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:7">
+    <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
         <v>284</v>
       </c>
@@ -4944,7 +4936,7 @@
         <v>7.868</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:7">
+    <row r="111" spans="1:7">
       <c r="A111" s="2" t="s">
         <v>287</v>
       </c>
@@ -4967,7 +4959,7 @@
         <v>76.09</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:7">
+    <row r="112" spans="1:7">
       <c r="A112" s="2" t="s">
         <v>290</v>
       </c>
@@ -4990,7 +4982,7 @@
         <v>63.078</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:7">
+    <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
         <v>292</v>
       </c>
@@ -5013,7 +5005,7 @@
         <v>14.273</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:7">
+    <row r="114" spans="1:7">
       <c r="A114" s="2" t="s">
         <v>295</v>
       </c>
@@ -5036,7 +5028,7 @@
         <v>4.812</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:7">
+    <row r="115" spans="1:7">
       <c r="A115" s="2" t="s">
         <v>297</v>
       </c>
@@ -5059,7 +5051,7 @@
         <v>39.062</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:7">
+    <row r="116" spans="1:7">
       <c r="A116" s="2" t="s">
         <v>299</v>
       </c>
@@ -5082,7 +5074,7 @@
         <v>10.183</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:7">
+    <row r="117" spans="1:7">
       <c r="A117" s="2" t="s">
         <v>301</v>
       </c>
@@ -5105,7 +5097,7 @@
         <v>4.231</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:7">
+    <row r="118" spans="1:7">
       <c r="A118" s="2" t="s">
         <v>303</v>
       </c>
@@ -5128,7 +5120,7 @@
         <v>28.283</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:7">
+    <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
         <v>305</v>
       </c>
@@ -5151,7 +5143,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:7">
+    <row r="120" spans="1:7">
       <c r="A120" s="2" t="s">
         <v>307</v>
       </c>
@@ -5174,7 +5166,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:7">
+    <row r="121" spans="1:7">
       <c r="A121" s="2" t="s">
         <v>309</v>
       </c>
@@ -5197,7 +5189,7 @@
         <v>16.434</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:7">
+    <row r="122" spans="1:7">
       <c r="A122" s="2" t="s">
         <v>312</v>
       </c>
@@ -5220,7 +5212,7 @@
         <v>3.943</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:7">
+    <row r="123" spans="1:7">
       <c r="A123" s="2" t="s">
         <v>315</v>
       </c>
@@ -5243,7 +5235,7 @@
         <v>5.928</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:7">
+    <row r="124" spans="1:7">
       <c r="A124" s="2" t="s">
         <v>318</v>
       </c>
@@ -5266,7 +5258,7 @@
         <v>38.186</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:7">
+    <row r="125" spans="1:7">
       <c r="A125" s="2" t="s">
         <v>321</v>
       </c>
@@ -5289,7 +5281,7 @@
         <v>86.727</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:7">
+    <row r="126" spans="1:7">
       <c r="A126" s="2" t="s">
         <v>324</v>
       </c>
@@ -5312,7 +5304,7 @@
         <v>8.183</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:7">
+    <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
         <v>326</v>
       </c>
@@ -5335,7 +5327,7 @@
         <v>9.858</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:7">
+    <row r="128" spans="1:7">
       <c r="A128" s="2" t="s">
         <v>328</v>
       </c>
@@ -5358,7 +5350,7 @@
         <v>8.439</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:7">
+    <row r="129" spans="1:7">
       <c r="A129" s="2" t="s">
         <v>330</v>
       </c>
@@ -5381,7 +5373,7 @@
         <v>5.556</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:7">
+    <row r="130" spans="1:7">
       <c r="A130" s="2" t="s">
         <v>332</v>
       </c>
@@ -5404,7 +5396,7 @@
         <v>125.535</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:7">
+    <row r="131" spans="1:7">
       <c r="A131" s="2" t="s">
         <v>334</v>
       </c>
@@ -5427,7 +5419,7 @@
         <v>38.445</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:7">
+    <row r="132" spans="1:7">
       <c r="A132" s="2" t="s">
         <v>336</v>
       </c>
@@ -5450,7 +5442,7 @@
         <v>7.775</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:7">
+    <row r="133" spans="1:7">
       <c r="A133" s="2" t="s">
         <v>339</v>
       </c>
@@ -5473,7 +5465,7 @@
         <v>41.194</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:7">
+    <row r="134" spans="1:7">
       <c r="A134" s="2" t="s">
         <v>341</v>
       </c>
@@ -5496,7 +5488,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:7">
+    <row r="135" spans="1:7">
       <c r="A135" s="2" t="s">
         <v>344</v>
       </c>
@@ -5519,7 +5511,7 @@
         <v>2.084</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:7">
+    <row r="136" spans="1:7">
       <c r="A136" s="2" t="s">
         <v>347</v>
       </c>
@@ -5565,7 +5557,7 @@
         <v>69.107</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:7">
+    <row r="138" spans="1:7">
       <c r="A138" s="2" t="s">
         <v>351</v>
       </c>
@@ -5588,7 +5580,7 @@
         <v>19.074</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:7">
+    <row r="139" spans="1:7">
       <c r="A139" s="2" t="s">
         <v>353</v>
       </c>
@@ -5611,7 +5603,7 @@
         <v>28.577</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:7">
+    <row r="140" spans="1:7">
       <c r="A140" s="2" t="s">
         <v>355</v>
       </c>
@@ -5634,7 +5626,7 @@
         <v>16.278</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:7">
+    <row r="141" spans="1:7">
       <c r="A141" s="2" t="s">
         <v>358</v>
       </c>
@@ -5657,7 +5649,7 @@
         <v>6.522</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:7">
+    <row r="142" spans="1:7">
       <c r="A142" s="2" t="s">
         <v>360</v>
       </c>
@@ -5680,7 +5672,7 @@
         <v>19.773</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:7">
+    <row r="143" spans="1:7">
       <c r="A143" s="2" t="s">
         <v>363</v>
       </c>
@@ -5703,7 +5695,7 @@
         <v>45.557</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:7">
+    <row r="144" spans="1:7">
       <c r="A144" s="2" t="s">
         <v>365</v>
       </c>
@@ -5726,7 +5718,7 @@
         <v>15.998</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:7">
+    <row r="145" spans="1:7">
       <c r="A145" s="2" t="s">
         <v>367</v>
       </c>
@@ -5749,7 +5741,7 @@
         <v>11.633</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:7">
+    <row r="146" spans="1:7">
       <c r="A146" s="2" t="s">
         <v>369</v>
       </c>
@@ -5772,7 +5764,7 @@
         <v>9.001</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:7">
+    <row r="147" spans="1:7">
       <c r="A147" s="2" t="s">
         <v>371</v>
       </c>
@@ -5795,7 +5787,7 @@
         <v>37.863</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:7">
+    <row r="148" spans="1:7">
       <c r="A148" s="2" t="s">
         <v>373</v>
       </c>
@@ -5818,7 +5810,7 @@
         <v>10.452</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:7">
+    <row r="149" spans="1:7">
       <c r="A149" s="2" t="s">
         <v>375</v>
       </c>
@@ -5841,7 +5833,7 @@
         <v>10.281</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:7">
+    <row r="150" spans="1:7">
       <c r="A150" s="2" t="s">
         <v>377</v>
       </c>
@@ -5864,7 +5856,7 @@
         <v>3.669</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:7">
+    <row r="151" spans="1:7">
       <c r="A151" s="2" t="s">
         <v>379</v>
       </c>
@@ -5887,7 +5879,7 @@
         <v>16.705</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:7">
+    <row r="152" spans="1:7">
       <c r="A152" s="2" t="s">
         <v>382</v>
       </c>
@@ -5910,7 +5902,7 @@
         <v>28.551</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:7">
+    <row r="153" spans="1:7">
       <c r="A153" s="2" t="s">
         <v>384</v>
       </c>
@@ -5956,7 +5948,7 @@
         <v>18.523</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:7">
+    <row r="155" spans="1:7">
       <c r="A155" s="2" t="s">
         <v>390</v>
       </c>
@@ -5979,7 +5971,7 @@
         <v>37.032</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:7">
+    <row r="156" spans="1:7">
       <c r="A156" s="2" t="s">
         <v>392</v>
       </c>
@@ -6002,7 +5994,7 @@
         <v>6.925</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:7">
+    <row r="157" spans="1:7">
       <c r="A157" s="2" t="s">
         <v>394</v>
       </c>
@@ -6025,7 +6017,7 @@
         <v>7.306</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:7">
+    <row r="158" spans="1:7">
       <c r="A158" s="2" t="s">
         <v>397</v>
       </c>
@@ -6048,7 +6040,7 @@
         <v>15.546</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:7">
+    <row r="159" spans="1:7">
       <c r="A159" s="2" t="s">
         <v>400</v>
       </c>
@@ -6071,7 +6063,7 @@
         <v>7.089</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:7">
+    <row r="160" spans="1:7">
       <c r="A160" s="2" t="s">
         <v>403</v>
       </c>
@@ -6094,7 +6086,7 @@
         <v>22.397</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:7">
+    <row r="161" spans="1:7">
       <c r="A161" s="2" t="s">
         <v>405</v>
       </c>
@@ -6117,7 +6109,7 @@
         <v>8.157</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:7">
+    <row r="162" spans="1:7">
       <c r="A162" s="2" t="s">
         <v>408</v>
       </c>
@@ -6140,7 +6132,7 @@
         <v>6.376</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:7">
+    <row r="163" spans="1:7">
       <c r="A163" s="2" t="s">
         <v>410</v>
       </c>
@@ -6163,7 +6155,7 @@
         <v>17.415</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:7">
+    <row r="164" spans="1:7">
       <c r="A164" s="2" t="s">
         <v>412</v>
       </c>
@@ -6186,7 +6178,7 @@
         <v>12.876</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:7">
+    <row r="165" spans="1:7">
       <c r="A165" s="2" t="s">
         <v>415</v>
       </c>
@@ -6209,7 +6201,7 @@
         <v>10.211</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:7">
+    <row r="166" spans="1:7">
       <c r="A166" s="2" t="s">
         <v>417</v>
       </c>
@@ -6232,7 +6224,7 @@
         <v>11.33</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:7">
+    <row r="167" spans="1:7">
       <c r="A167" s="2" t="s">
         <v>419</v>
       </c>
@@ -6255,7 +6247,7 @@
         <v>8.71</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:7">
+    <row r="168" spans="1:7">
       <c r="A168" s="2" t="s">
         <v>422</v>
       </c>
@@ -6278,7 +6270,7 @@
         <v>5.255</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:7">
+    <row r="169" spans="1:7">
       <c r="A169" s="2" t="s">
         <v>425</v>
       </c>
@@ -6301,7 +6293,7 @@
         <v>5.682</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:7">
+    <row r="170" spans="1:7">
       <c r="A170" s="2" t="s">
         <v>427</v>
       </c>
@@ -6325,13 +6317,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B170">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="B$1:B$1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -6954,7 +6941,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B2 B3 B4 B5 B6:B7 B8 B9:B10 B11 B12:B13 B14 B15 B16 B17 B18 B19 B20 B21 B22:B23 B24:B25 B26">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -7112,7 +7099,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B2 B3 B4 B5 B6">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
